--- a/data/trans_orig/IP32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP32-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29254D78-03F8-4A53-ACC8-498E153D8EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98CEE77C-A450-436F-BB57-9DF94EE8E41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{559FD8EF-7A7B-41B0-965F-AEE3E020641B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{651B44D3-F487-4456-81DE-7A57000AC476}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,165 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>Resto de España</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>Extranjero</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Andalucia</t>
-  </si>
-  <si>
     <t>90,31%</t>
   </si>
   <si>
@@ -101,7 +254,31 @@
     <t>93,84%</t>
   </si>
   <si>
-    <t>Extranjero</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>3,54%</t>
@@ -131,121 +308,82 @@
     <t>5,11%</t>
   </si>
   <si>
-    <t>Resto de España</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -254,9 +392,6 @@
     <t>87,09%</t>
   </si>
   <si>
-    <t>83,01%</t>
-  </si>
-  <si>
     <t>90,21%</t>
   </si>
   <si>
@@ -278,6 +413,27 @@
     <t>89,55%</t>
   </si>
   <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
     <t>5,43%</t>
   </si>
   <si>
@@ -305,162 +461,6 @@
     <t>6,76%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
     <t>89,7%</t>
   </si>
   <si>
@@ -485,6 +485,33 @@
     <t>91,35%</t>
   </si>
   <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
     <t>4,61%</t>
   </si>
   <si>
@@ -512,36 +539,117 @@
     <t>5,67%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
     <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
     <t>94,72%</t>
   </si>
   <si>
@@ -569,6 +677,24 @@
     <t>96,5%</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
     <t>3,0%</t>
   </si>
   <si>
@@ -596,85 +722,79 @@
     <t>4,52%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>94,58%</t>
@@ -698,6 +818,27 @@
     <t>96,6%</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
     <t>5,1%</t>
   </si>
   <si>
@@ -725,147 +866,6 @@
     <t>6,7%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
     <t>94,82%</t>
   </si>
   <si>
@@ -893,6 +893,24 @@
     <t>95,76%</t>
   </si>
   <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
     <t>3,68%</t>
   </si>
   <si>
@@ -914,27 +932,81 @@
     <t>2,77%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
     <t>Menores según su lugar de nacimiento en 2015 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
     <t>95,45%</t>
   </si>
   <si>
@@ -959,6 +1031,27 @@
     <t>96,13%</t>
   </si>
   <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
     <t>2,79%</t>
   </si>
   <si>
@@ -986,82 +1079,52 @@
     <t>5,52%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>97,6%</t>
@@ -1091,6 +1154,18 @@
     <t>98,57%</t>
   </si>
   <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
@@ -1106,81 +1181,6 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>97,12%</t>
   </si>
   <si>
@@ -1205,6 +1205,24 @@
     <t>95,65%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
     <t>1,13%</t>
   </si>
   <si>
@@ -1223,27 +1241,75 @@
     <t>2,86%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
     <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
     <t>97,42%</t>
   </si>
   <si>
@@ -1262,6 +1328,24 @@
     <t>98,36%</t>
   </si>
   <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
     <t>1,46%</t>
   </si>
   <si>
@@ -1274,64 +1358,79 @@
     <t>0,98%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>99,37%</t>
@@ -1355,6 +1454,18 @@
     <t>98,43%</t>
   </si>
   <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
     <t>1,09%</t>
   </si>
   <si>
@@ -1370,117 +1481,6 @@
     <t>3,2%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
     <t>97,03%</t>
   </si>
   <si>
@@ -1502,6 +1502,15 @@
     <t>97,86%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
     <t>2,18%</t>
   </si>
   <si>
@@ -1518,15 +1527,6 @@
   </si>
   <si>
     <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
   </si>
 </sst>
 </file>
@@ -1918,7 +1918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635E9327-5083-4F5D-87F6-5337918EB744}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0BC681-CA17-48C1-9575-DA58A4D40137}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2036,10 +2036,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>191023</v>
+        <v>22967</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2051,10 +2051,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>181316</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2066,10 +2066,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>580</v>
+        <v>59</v>
       </c>
       <c r="N4" s="7">
-        <v>372340</v>
+        <v>45691</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2087,10 +2087,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>7486</v>
+        <v>1645</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2102,85 +2102,85 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>7065</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1645</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
+      <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="7">
-        <v>14551</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>832</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7">
-        <v>13002</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>832</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="7">
-        <v>9</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5524</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="7">
-        <v>29</v>
-      </c>
-      <c r="N6" s="7">
-        <v>18526</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,54 +2189,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>321</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>211511</v>
+        <v>25444</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>193905</v>
+        <v>22724</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
-        <v>631</v>
+        <v>62</v>
       </c>
       <c r="N7" s="7">
-        <v>405417</v>
+        <v>48168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2248,13 +2248,13 @@
         <v>118036</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>161</v>
@@ -2263,13 +2263,13 @@
         <v>107182</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>340</v>
@@ -2278,13 +2278,13 @@
         <v>225217</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,100 +2293,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>2758</v>
+        <v>6167</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2140</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="7">
+        <v>12</v>
+      </c>
+      <c r="N9" s="7">
+        <v>8307</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="7">
-        <v>9</v>
-      </c>
-      <c r="I9" s="7">
-        <v>6104</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="7">
-        <v>13</v>
-      </c>
-      <c r="N9" s="7">
-        <v>8862</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2758</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
-        <v>6167</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>6104</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="7">
+        <v>13</v>
+      </c>
+      <c r="N10" s="7">
+        <v>8862</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2140</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="7">
-        <v>12</v>
-      </c>
-      <c r="N10" s="7">
-        <v>8307</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2401,13 @@
         <v>126961</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>173</v>
@@ -2416,13 +2416,13 @@
         <v>115426</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M11" s="7">
         <v>365</v>
@@ -2431,66 +2431,66 @@
         <v>242386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="D12" s="7">
-        <v>180392</v>
+        <v>191023</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="7">
+        <v>290</v>
+      </c>
+      <c r="I12" s="7">
+        <v>181316</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="7">
+        <v>580</v>
+      </c>
+      <c r="N12" s="7">
+        <v>372340</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="7">
-        <v>238</v>
-      </c>
-      <c r="I12" s="7">
-        <v>182361</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="7">
-        <v>504</v>
-      </c>
-      <c r="N12" s="7">
-        <v>362753</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,100 +2499,100 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>11243</v>
+        <v>13002</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>8594</v>
+        <v>5524</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>19837</v>
+        <v>18526</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7486</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="7">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7065</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="7">
         <v>22</v>
       </c>
-      <c r="D14" s="7">
-        <v>15504</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="N14" s="7">
+        <v>14551</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="7">
-        <v>24</v>
-      </c>
-      <c r="I14" s="7">
-        <v>18360</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="7">
-        <v>46</v>
-      </c>
-      <c r="N14" s="7">
-        <v>33864</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,102 +2601,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="D15" s="7">
-        <v>207139</v>
+        <v>211511</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="I15" s="7">
-        <v>209315</v>
+        <v>193905</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
-        <v>579</v>
+        <v>631</v>
       </c>
       <c r="N15" s="7">
-        <v>416454</v>
+        <v>405417</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="D16" s="7">
-        <v>22967</v>
+        <v>133393</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="7">
+        <v>204</v>
+      </c>
+      <c r="I16" s="7">
+        <v>121652</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="7">
+        <v>412</v>
+      </c>
+      <c r="N16" s="7">
+        <v>255044</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="7">
-        <v>29</v>
-      </c>
-      <c r="I16" s="7">
-        <v>22724</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="7">
-        <v>59</v>
-      </c>
-      <c r="N16" s="7">
-        <v>45691</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,100 +2705,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>832</v>
+        <v>4662</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6442</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="7">
+        <v>17</v>
+      </c>
+      <c r="N17" s="7">
+        <v>11104</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>832</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>1645</v>
+        <v>10876</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="7">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7">
+        <v>9724</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="7">
+        <v>31</v>
+      </c>
+      <c r="N18" s="7">
+        <v>20599</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1645</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,93 +2807,93 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="D19" s="7">
-        <v>25444</v>
+        <v>148931</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I19" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M19" s="7">
-        <v>62</v>
+        <v>460</v>
       </c>
       <c r="N19" s="7">
-        <v>48168</v>
+        <v>286748</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="D20" s="7">
-        <v>133393</v>
+        <v>180392</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>238</v>
+      </c>
+      <c r="I20" s="7">
+        <v>182361</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="7">
-        <v>204</v>
-      </c>
-      <c r="I20" s="7">
-        <v>121652</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>412</v>
+        <v>504</v>
       </c>
       <c r="N20" s="7">
-        <v>255044</v>
+        <v>362753</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2911,94 +2911,94 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D21" s="7">
-        <v>10876</v>
+        <v>15504</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>124</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>24</v>
+      </c>
+      <c r="I21" s="7">
+        <v>18360</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="7">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7">
-        <v>9724</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>46</v>
+      </c>
+      <c r="N21" s="7">
+        <v>33864</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M21" s="7">
-        <v>31</v>
-      </c>
-      <c r="N21" s="7">
-        <v>20599</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>4662</v>
+        <v>11243</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>12</v>
+      </c>
+      <c r="I22" s="7">
+        <v>8594</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>6442</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>29</v>
+      </c>
+      <c r="N22" s="7">
+        <v>19837</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="M22" s="7">
-        <v>17</v>
-      </c>
-      <c r="N22" s="7">
-        <v>11104</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>138</v>
@@ -3013,49 +3013,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="D23" s="7">
-        <v>148931</v>
+        <v>207139</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H23" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I23" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M23" s="7">
-        <v>460</v>
+        <v>579</v>
       </c>
       <c r="N23" s="7">
-        <v>286748</v>
+        <v>416454</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,7 +3105,7 @@
         <v>146</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>147</v>
@@ -3117,10 +3117,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D25" s="7">
-        <v>33195</v>
+        <v>40979</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>148</v>
@@ -3132,10 +3132,10 @@
         <v>150</v>
       </c>
       <c r="H25" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" s="7">
-        <v>31487</v>
+        <v>32466</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>151</v>
@@ -3147,10 +3147,10 @@
         <v>153</v>
       </c>
       <c r="M25" s="7">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N25" s="7">
-        <v>64681</v>
+        <v>73446</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>154</v>
@@ -3165,13 +3165,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7">
-        <v>40979</v>
+        <v>33195</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>157</v>
@@ -3183,10 +3183,10 @@
         <v>159</v>
       </c>
       <c r="H26" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" s="7">
-        <v>32466</v>
+        <v>31487</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>160</v>
@@ -3198,10 +3198,10 @@
         <v>162</v>
       </c>
       <c r="M26" s="7">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N26" s="7">
-        <v>73446</v>
+        <v>64681</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>163</v>
@@ -3225,13 +3225,13 @@
         <v>719986</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H27" s="7">
         <v>1015</v>
@@ -3240,13 +3240,13 @@
         <v>679187</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M27" s="7">
         <v>2097</v>
@@ -3255,13 +3255,13 @@
         <v>1399172</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3282,7 +3282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFC787F-D122-4BF6-B9F7-CCCB5E2A63B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90430FEC-4918-43ED-A045-6B920EA1C4A1}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3400,49 +3400,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>310</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>212020</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18841</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="7">
-        <v>305</v>
-      </c>
-      <c r="I4" s="7">
-        <v>196216</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>51</v>
+      </c>
+      <c r="N4" s="7">
+        <v>44296</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="7">
-        <v>615</v>
-      </c>
-      <c r="N4" s="7">
-        <v>408237</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,100 +3451,100 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>6716</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>994</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>994</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4851</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M5" s="7">
-        <v>13</v>
-      </c>
-      <c r="N5" s="7">
-        <v>11566</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>5099</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>5291</v>
+        <v>2537</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>10390</v>
+        <v>2537</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,54 +3553,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>223835</v>
+        <v>25455</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>206358</v>
+        <v>22373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
-        <v>643</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>430193</v>
+        <v>47828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3612,13 +3612,13 @@
         <v>126845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -3627,13 +3627,13 @@
         <v>113699</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>339</v>
@@ -3642,13 +3642,13 @@
         <v>240544</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,100 +3657,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1318</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
-        <v>1066</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
+        <v>650</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M9" s="7">
         <v>3</v>
       </c>
-      <c r="I9" s="7">
-        <v>2635</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M9" s="7">
-        <v>4</v>
-      </c>
       <c r="N9" s="7">
-        <v>3701</v>
+        <v>1968</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1318</v>
+        <v>1066</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>650</v>
+        <v>2635</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>1968</v>
+        <v>3701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3765,13 @@
         <v>129229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>163</v>
@@ -3780,13 +3780,13 @@
         <v>116984</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M11" s="7">
         <v>346</v>
@@ -3795,66 +3795,66 @@
         <v>246213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="D12" s="7">
-        <v>197098</v>
+        <v>212020</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H12" s="7">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="I12" s="7">
-        <v>198910</v>
+        <v>196216</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M12" s="7">
-        <v>534</v>
+        <v>615</v>
       </c>
       <c r="N12" s="7">
-        <v>396008</v>
+        <v>408237</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,100 +3863,100 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>10631</v>
+        <v>5099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>8476</v>
+        <v>5291</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>19107</v>
+        <v>10390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>667</v>
+        <v>6716</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>2914</v>
+        <v>4851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>3581</v>
+        <v>11566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,102 +3965,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="D15" s="7">
-        <v>208396</v>
+        <v>223835</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="I15" s="7">
-        <v>210300</v>
+        <v>206358</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="N15" s="7">
-        <v>418696</v>
+        <v>430193</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="D16" s="7">
-        <v>25455</v>
+        <v>153042</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="I16" s="7">
-        <v>18841</v>
+        <v>145812</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
-        <v>51</v>
+        <v>469</v>
       </c>
       <c r="N16" s="7">
-        <v>44296</v>
+        <v>298853</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,100 +4069,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>4228</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2126</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M17" s="7">
+        <v>10</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6354</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2537</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2537</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>9322</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>994</v>
+        <v>7438</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>246</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>994</v>
+        <v>16760</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,102 +4171,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="D19" s="7">
-        <v>25455</v>
+        <v>166592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I19" s="7">
-        <v>22373</v>
+        <v>155376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>498</v>
       </c>
       <c r="N19" s="7">
-        <v>47828</v>
+        <v>321968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="D20" s="7">
-        <v>153042</v>
+        <v>197098</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" s="7">
+        <v>262</v>
+      </c>
+      <c r="I20" s="7">
+        <v>198910</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H20" s="7">
-        <v>230</v>
-      </c>
-      <c r="I20" s="7">
-        <v>145812</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="N20" s="7">
-        <v>298853</v>
+        <v>396008</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,25 +4275,25 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>9322</v>
+        <v>667</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H21" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>7438</v>
+        <v>2914</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>261</v>
@@ -4305,64 +4305,64 @@
         <v>263</v>
       </c>
       <c r="M21" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N21" s="7">
-        <v>16760</v>
+        <v>3581</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>264</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>4228</v>
+        <v>10631</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>9</v>
+      </c>
+      <c r="I22" s="7">
+        <v>8476</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H22" s="7">
-        <v>3</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2126</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>19</v>
+      </c>
+      <c r="N22" s="7">
+        <v>19107</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="M22" s="7">
-        <v>10</v>
-      </c>
-      <c r="N22" s="7">
-        <v>6354</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>273</v>
@@ -4377,49 +4377,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="D23" s="7">
-        <v>166592</v>
+        <v>208396</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H23" s="7">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="I23" s="7">
-        <v>155376</v>
+        <v>210300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M23" s="7">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="N23" s="7">
-        <v>321968</v>
+        <v>418696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,64 +4481,64 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>27735</v>
+        <v>11312</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>17</v>
+      </c>
+      <c r="I25" s="7">
+        <v>11976</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H25" s="7">
-        <v>29</v>
-      </c>
-      <c r="I25" s="7">
-        <v>25937</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M25" s="7">
+        <v>34</v>
+      </c>
+      <c r="N25" s="7">
+        <v>23287</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="M25" s="7">
-        <v>57</v>
-      </c>
-      <c r="N25" s="7">
-        <v>53673</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D26" s="7">
-        <v>11312</v>
+        <v>27735</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>291</v>
@@ -4547,34 +4547,34 @@
         <v>292</v>
       </c>
       <c r="H26" s="7">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I26" s="7">
-        <v>11976</v>
+        <v>25937</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="N26" s="7">
-        <v>23287</v>
+        <v>53673</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>58</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4589,13 @@
         <v>753507</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H27" s="7">
         <v>1025</v>
@@ -4604,13 +4604,13 @@
         <v>711391</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M27" s="7">
         <v>2099</v>
@@ -4619,13 +4619,13 @@
         <v>1464898</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4646,7 +4646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D95979-B056-4D8B-8A0F-8A037B8E4946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43E0685-2788-4B1F-80C1-F95565225DC5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4764,49 +4764,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>214160</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22527</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="H4" s="7">
-        <v>316</v>
-      </c>
-      <c r="I4" s="7">
-        <v>193838</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
+        <v>54</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48101</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="M4" s="7">
-        <v>635</v>
-      </c>
-      <c r="N4" s="7">
-        <v>407998</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,100 +4815,100 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>6267</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>307</v>
+        <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>71</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>8573</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>310</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>14840</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>3933</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>4836</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>8769</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,54 +4917,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4976,13 +4976,13 @@
         <v>118076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="H8" s="7">
         <v>160</v>
@@ -4991,13 +4991,13 @@
         <v>108563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
         <v>320</v>
@@ -5006,13 +5006,13 @@
         <v>226640</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,100 +5021,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>3713</v>
+        <v>713</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>332</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>722</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="7">
-        <v>1895</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M9" s="7">
-        <v>6</v>
-      </c>
       <c r="N9" s="7">
-        <v>5608</v>
+        <v>1434</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>291</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>336</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>713</v>
+        <v>3713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>106</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>722</v>
+        <v>1895</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>1434</v>
+        <v>5608</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5129,13 @@
         <v>122502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>163</v>
@@ -5144,13 +5144,13 @@
         <v>111180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M11" s="7">
         <v>328</v>
@@ -5159,66 +5159,66 @@
         <v>233682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="D12" s="7">
-        <v>200104</v>
+        <v>214160</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>342</v>
+        <v>145</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="I12" s="7">
-        <v>201631</v>
+        <v>193838</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="M12" s="7">
-        <v>557</v>
+        <v>635</v>
       </c>
       <c r="N12" s="7">
-        <v>401735</v>
+        <v>407998</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,100 +5227,100 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>1878</v>
+        <v>3933</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>1882</v>
+        <v>4836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>106</v>
+        <v>332</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>3761</v>
+        <v>8769</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>3040</v>
+        <v>6267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>3907</v>
+        <v>8573</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N14" s="7">
-        <v>6947</v>
+        <v>14840</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,102 +5329,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="D15" s="7">
-        <v>205023</v>
+        <v>224359</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I15" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
-        <v>570</v>
+        <v>666</v>
       </c>
       <c r="N15" s="7">
-        <v>412443</v>
+        <v>431606</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="D16" s="7">
-        <v>25574</v>
+        <v>164760</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="I16" s="7">
-        <v>22527</v>
+        <v>149365</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
-        <v>54</v>
+        <v>495</v>
       </c>
       <c r="N16" s="7">
-        <v>48101</v>
+        <v>314125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,100 +5433,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>2322</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>352</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>2322</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>1913</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>356</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>4310</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>106</v>
+        <v>357</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>108</v>
+        <v>358</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>6222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>106</v>
+        <v>359</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,78 +5535,78 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D19" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I19" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N19" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="D20" s="7">
-        <v>164760</v>
+        <v>200104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="H20" s="7">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="I20" s="7">
-        <v>149365</v>
+        <v>201631</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>365</v>
@@ -5618,19 +5618,19 @@
         <v>367</v>
       </c>
       <c r="M20" s="7">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="N20" s="7">
-        <v>314125</v>
+        <v>401735</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>237</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,100 +5639,100 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="7">
-        <v>1913</v>
+        <v>3040</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>370</v>
+        <v>75</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
       </c>
       <c r="I21" s="7">
-        <v>4310</v>
+        <v>3907</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>39</v>
+        <v>374</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N21" s="7">
-        <v>6222</v>
+        <v>6947</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>375</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>376</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>2322</v>
+        <v>1882</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>284</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>377</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>2322</v>
+        <v>3761</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,49 +5741,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="D23" s="7">
-        <v>166673</v>
+        <v>205023</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H23" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I23" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M23" s="7">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="N23" s="7">
-        <v>322670</v>
+        <v>412443</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,7 +5836,7 @@
         <v>387</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,100 +5845,100 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>13771</v>
+        <v>7686</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>63</v>
+        <v>388</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>388</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H25" s="7">
+        <v>17</v>
+      </c>
+      <c r="I25" s="7">
+        <v>11786</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="H25" s="7">
-        <v>20</v>
-      </c>
-      <c r="I25" s="7">
-        <v>16660</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>29</v>
+      </c>
+      <c r="N25" s="7">
+        <v>19472</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="M25" s="7">
-        <v>35</v>
-      </c>
-      <c r="N25" s="7">
-        <v>30431</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="P25" s="7" t="s">
-        <v>35</v>
+        <v>393</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>393</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26" s="7">
-        <v>7686</v>
+        <v>13771</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="H26" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I26" s="7">
-        <v>11786</v>
+        <v>16660</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M26" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N26" s="7">
-        <v>19472</v>
+        <v>30431</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>398</v>
+        <v>344</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5953,13 @@
         <v>744131</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
@@ -5968,13 +5968,13 @@
         <v>704371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M27" s="7">
         <v>2125</v>
@@ -5983,13 +5983,13 @@
         <v>1448502</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6010,7 +6010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87DAD06-7CDA-40E2-99E2-6943420927E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A9E59E-C4A9-4BBB-AF28-62425094C866}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6128,10 +6128,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>332</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>243725</v>
+        <v>11788</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>401</v>
@@ -6140,37 +6140,37 @@
         <v>402</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7">
+        <v>28</v>
+      </c>
+      <c r="I4" s="7">
+        <v>16787</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
+        <v>46</v>
+      </c>
+      <c r="N4" s="7">
+        <v>28575</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="7">
-        <v>269</v>
-      </c>
-      <c r="I4" s="7">
-        <v>187092</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="M4" s="7">
-        <v>601</v>
-      </c>
-      <c r="N4" s="7">
-        <v>430817</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>406</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,100 +6179,100 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>3655</v>
+        <v>910</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>910</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H5" s="7">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4497</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M5" s="7">
-        <v>16</v>
-      </c>
-      <c r="N5" s="7">
-        <v>8152</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>2806</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>413</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>414</v>
+        <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>763</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>416</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>3569</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>417</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>411</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,54 +6281,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6340,13 +6340,13 @@
         <v>109780</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H8" s="7">
         <v>167</v>
@@ -6355,13 +6355,13 @@
         <v>103736</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>315</v>
@@ -6370,13 +6370,13 @@
         <v>213515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,100 +6385,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>4816</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>426</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>427</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>428</v>
+        <v>214</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>429</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="M9" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>4975</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>430</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>4816</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>418</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>419</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>420</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>106</v>
+        <v>421</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>4975</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6493,13 @@
         <v>114596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -6508,13 +6508,13 @@
         <v>103895</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M11" s="7">
         <v>320</v>
@@ -6523,66 +6523,66 @@
         <v>218490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>230</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>172140</v>
+        <v>243725</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>175</v>
+        <v>424</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H12" s="7">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>164419</v>
+        <v>187092</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>433</v>
+        <v>275</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="M12" s="7">
-        <v>457</v>
+        <v>601</v>
       </c>
       <c r="N12" s="7">
-        <v>336559</v>
+        <v>430817</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>435</v>
+        <v>350</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,100 +6591,100 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2806</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>763</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="M13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
-        <v>1731</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4124</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="M13" s="7">
-        <v>15</v>
-      </c>
       <c r="N13" s="7">
-        <v>5856</v>
+        <v>3569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>1145</v>
+        <v>3655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>435</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>2205</v>
+        <v>4497</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>135</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>3349</v>
+        <v>8152</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>434</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,102 +6693,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D15" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="I15" s="7">
-        <v>170748</v>
+        <v>192352</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>623</v>
       </c>
       <c r="N15" s="7">
-        <v>345764</v>
+        <v>442538</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="D16" s="7">
-        <v>11788</v>
+        <v>166746</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H16" s="7">
+        <v>216</v>
+      </c>
+      <c r="I16" s="7">
+        <v>160476</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M16" s="7">
+        <v>430</v>
+      </c>
+      <c r="N16" s="7">
+        <v>327222</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="7">
-        <v>28</v>
-      </c>
-      <c r="I16" s="7">
-        <v>16787</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="7">
-        <v>46</v>
-      </c>
-      <c r="N16" s="7">
-        <v>28575</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,100 +6797,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>448</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4663</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>452</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>5473</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>453</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>454</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>32</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>910</v>
+        <v>5653</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>457</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>2763</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>106</v>
+        <v>459</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>108</v>
+        <v>460</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>241</v>
+        <v>461</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>910</v>
+        <v>8416</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>419</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,102 +6899,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D19" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I19" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M19" s="7">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="N19" s="7">
-        <v>29485</v>
+        <v>341110</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D20" s="7">
-        <v>166746</v>
+        <v>172140</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H20" s="7">
+        <v>227</v>
+      </c>
+      <c r="I20" s="7">
+        <v>164419</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="M20" s="7">
         <v>457</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H20" s="7">
-        <v>216</v>
-      </c>
-      <c r="I20" s="7">
-        <v>160476</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="M20" s="7">
-        <v>430</v>
-      </c>
       <c r="N20" s="7">
-        <v>327222</v>
+        <v>336559</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,79 +7003,79 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>5653</v>
+        <v>1145</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>464</v>
+        <v>314</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>465</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
       </c>
       <c r="I21" s="7">
-        <v>2763</v>
+        <v>2205</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>469</v>
+        <v>290</v>
       </c>
       <c r="M21" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N21" s="7">
-        <v>8416</v>
+        <v>3349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>470</v>
+        <v>241</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>471</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>809</v>
+        <v>1731</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>472</v>
+        <v>358</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>473</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
-        <v>4663</v>
+        <v>4124</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>474</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>475</v>
@@ -7084,10 +7084,10 @@
         <v>476</v>
       </c>
       <c r="M22" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N22" s="7">
-        <v>5473</v>
+        <v>5856</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>477</v>
@@ -7105,49 +7105,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D23" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H23" s="7">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I23" s="7">
-        <v>167902</v>
+        <v>170748</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M23" s="7">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="N23" s="7">
-        <v>341110</v>
+        <v>345764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,7 +7182,7 @@
         <v>483</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>484</v>
@@ -7197,7 +7197,7 @@
         <v>485</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>486</v>
@@ -7209,100 +7209,100 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>15856</v>
+        <v>5670</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>11</v>
+      </c>
+      <c r="I25" s="7">
+        <v>7631</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="H25" s="7">
-        <v>23</v>
-      </c>
-      <c r="I25" s="7">
-        <v>11543</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>490</v>
+        <v>334</v>
       </c>
       <c r="M25" s="7">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N25" s="7">
-        <v>27399</v>
+        <v>13301</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>416</v>
+        <v>241</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>491</v>
+        <v>316</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>492</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D26" s="7">
-        <v>5670</v>
+        <v>15856</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>332</v>
+        <v>490</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>238</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H26" s="7">
+        <v>23</v>
+      </c>
+      <c r="I26" s="7">
+        <v>11543</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="H26" s="7">
-        <v>11</v>
-      </c>
-      <c r="I26" s="7">
-        <v>7631</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>48</v>
+      </c>
+      <c r="N26" s="7">
+        <v>27399</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M26" s="7">
-        <v>21</v>
-      </c>
-      <c r="N26" s="7">
-        <v>13301</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,13 +7317,13 @@
         <v>725704</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H27" s="7">
         <v>941</v>
@@ -7332,13 +7332,13 @@
         <v>651684</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M27" s="7">
         <v>1918</v>
@@ -7347,13 +7347,13 @@
         <v>1377388</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP32-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98CEE77C-A450-436F-BB57-9DF94EE8E41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D139FAD-2238-487E-883E-113150716A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{651B44D3-F487-4456-81DE-7A57000AC476}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A6272DF-B407-45D3-8267-C82D63063CC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="500">
   <si>
     <t>Menores según su lugar de nacimiento en 2007 (Tasa respuesta: 99,67%)</t>
   </si>
@@ -71,16 +71,55 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Extranjero</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>Resto de España</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
     <t>Andalucia</t>
   </si>
   <si>
     <t>90,27%</t>
   </si>
   <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -95,1438 +134,1411 @@
     <t>94,86%</t>
   </si>
   <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>Resto de España</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>Extranjero</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
     <t>92,97%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>90,06%</t>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2015 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>95,4%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>98,06%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1549,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1633,39 +1645,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1717,7 +1729,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1828,13 +1840,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1843,6 +1848,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1907,19 +1919,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0BC681-CA17-48C1-9575-DA58A4D40137}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A2E493-A0A3-4899-AD0E-1FB7C28E4289}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2036,10 +2068,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>22967</v>
+        <v>832</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2051,40 +2083,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>832</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>59</v>
-      </c>
-      <c r="N4" s="7">
-        <v>45691</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -2093,13 +2125,13 @@
         <v>1645</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2108,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2123,61 +2155,61 @@
         <v>1645</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22967</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
+        <v>29</v>
+      </c>
+      <c r="I6" s="7">
+        <v>22724</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>832</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="7">
+        <v>59</v>
+      </c>
+      <c r="N6" s="7">
+        <v>45691</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>832</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>32</v>
@@ -2195,13 +2227,13 @@
         <v>25444</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -2210,13 +2242,13 @@
         <v>22724</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -2225,13 +2257,13 @@
         <v>48168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,10 +2274,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>118036</v>
+        <v>2758</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
@@ -2257,10 +2289,10 @@
         <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>107182</v>
+        <v>6104</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>37</v>
@@ -2272,10 +2304,10 @@
         <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>340</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>225217</v>
+        <v>8862</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>40</v>
@@ -2290,7 +2322,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
         <v>9</v>
@@ -2341,13 +2373,13 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="D10" s="7">
-        <v>2758</v>
+        <v>118036</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>52</v>
@@ -2359,10 +2391,10 @@
         <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="I10" s="7">
-        <v>6104</v>
+        <v>107182</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>55</v>
@@ -2374,10 +2406,10 @@
         <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="N10" s="7">
-        <v>8862</v>
+        <v>225217</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>58</v>
@@ -2401,13 +2433,13 @@
         <v>126961</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>173</v>
@@ -2416,13 +2448,13 @@
         <v>115426</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>365</v>
@@ -2431,13 +2463,13 @@
         <v>242386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,10 +2480,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>191023</v>
+        <v>7486</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>62</v>
@@ -2463,10 +2495,10 @@
         <v>64</v>
       </c>
       <c r="H12" s="7">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>181316</v>
+        <v>7065</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>65</v>
@@ -2478,10 +2510,10 @@
         <v>67</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>22</v>
       </c>
       <c r="N12" s="7">
-        <v>372340</v>
+        <v>14551</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>68</v>
@@ -2496,7 +2528,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
         <v>20</v>
@@ -2547,13 +2579,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="D14" s="7">
-        <v>7486</v>
+        <v>191023</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>80</v>
@@ -2565,10 +2597,10 @@
         <v>82</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>7065</v>
+        <v>181316</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>83</v>
@@ -2580,10 +2612,10 @@
         <v>85</v>
       </c>
       <c r="M14" s="7">
-        <v>22</v>
+        <v>580</v>
       </c>
       <c r="N14" s="7">
-        <v>14551</v>
+        <v>372340</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>86</v>
@@ -2607,13 +2639,13 @@
         <v>211511</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H15" s="7">
         <v>310</v>
@@ -2622,13 +2654,13 @@
         <v>193905</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7">
         <v>631</v>
@@ -2637,13 +2669,13 @@
         <v>405417</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,10 +2686,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>133393</v>
+        <v>10876</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>90</v>
@@ -2666,43 +2698,43 @@
         <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>121652</v>
+        <v>9724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
-        <v>412</v>
+        <v>31</v>
       </c>
       <c r="N16" s="7">
-        <v>255044</v>
+        <v>20599</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
@@ -2711,13 +2743,13 @@
         <v>4662</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2726,13 +2758,13 @@
         <v>6442</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -2741,64 +2773,64 @@
         <v>11104</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="D18" s="7">
-        <v>10876</v>
+        <v>133393</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="I18" s="7">
-        <v>9724</v>
+        <v>121652</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
-        <v>31</v>
+        <v>412</v>
       </c>
       <c r="N18" s="7">
-        <v>20599</v>
+        <v>255044</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2845,13 @@
         <v>148931</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H19" s="7">
         <v>229</v>
@@ -2828,13 +2860,13 @@
         <v>137817</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M19" s="7">
         <v>460</v>
@@ -2843,72 +2875,72 @@
         <v>286748</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>266</v>
+        <v>17</v>
       </c>
       <c r="D20" s="7">
-        <v>180392</v>
+        <v>11243</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7">
-        <v>182361</v>
+        <v>8594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
-        <v>504</v>
+        <v>29</v>
       </c>
       <c r="N20" s="7">
-        <v>362753</v>
+        <v>19837</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
         <v>22</v>
@@ -2917,13 +2949,13 @@
         <v>15504</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -2932,13 +2964,13 @@
         <v>18360</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M21" s="7">
         <v>46</v>
@@ -2947,64 +2979,64 @@
         <v>33864</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="D22" s="7">
-        <v>11243</v>
+        <v>180392</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I22" s="7">
-        <v>8594</v>
+        <v>182361</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
-        <v>29</v>
+        <v>504</v>
       </c>
       <c r="N22" s="7">
-        <v>19837</v>
+        <v>362753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3051,13 @@
         <v>207139</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>274</v>
@@ -3034,13 +3066,13 @@
         <v>209315</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>579</v>
@@ -3049,13 +3081,13 @@
         <v>416454</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,55 +3098,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>973</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7">
-        <v>645812</v>
+        <v>33195</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
-        <v>922</v>
+        <v>47</v>
       </c>
       <c r="I24" s="7">
-        <v>615234</v>
+        <v>31487</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
-        <v>1895</v>
+        <v>96</v>
       </c>
       <c r="N24" s="7">
-        <v>1261045</v>
+        <v>64681</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
         <v>60</v>
@@ -3123,13 +3155,13 @@
         <v>40979</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -3138,13 +3170,13 @@
         <v>32466</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3153,64 +3185,64 @@
         <v>73446</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
-        <v>49</v>
+        <v>973</v>
       </c>
       <c r="D26" s="7">
-        <v>33195</v>
+        <v>645811</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H26" s="7">
-        <v>47</v>
+        <v>922</v>
       </c>
       <c r="I26" s="7">
-        <v>31487</v>
+        <v>615234</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
-        <v>96</v>
+        <v>1895</v>
       </c>
       <c r="N26" s="7">
-        <v>64681</v>
+        <v>1261045</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,16 +3254,16 @@
         <v>1082</v>
       </c>
       <c r="D27" s="7">
-        <v>719986</v>
+        <v>719985</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H27" s="7">
         <v>1015</v>
@@ -3240,13 +3272,13 @@
         <v>679187</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M27" s="7">
         <v>2097</v>
@@ -3255,13 +3287,18 @@
         <v>1399172</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3282,8 +3319,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90430FEC-4918-43ED-A045-6B920EA1C4A1}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA79DE6-0122-446B-9600-D06B9D4394FD}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3299,7 +3336,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3400,55 +3437,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>18841</v>
+        <v>2537</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>44296</v>
+        <v>2537</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3457,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3472,13 +3509,13 @@
         <v>994</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3487,64 +3524,64 @@
         <v>994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7">
-        <v>2537</v>
+        <v>18841</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="N6" s="7">
-        <v>2537</v>
+        <v>44296</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3596,13 @@
         <v>25455</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3574,13 +3611,13 @@
         <v>22373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3589,13 +3626,13 @@
         <v>47828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,55 +3643,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>126845</v>
+        <v>1066</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>113699</v>
+        <v>2635</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
-        <v>339</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>240544</v>
+        <v>3701</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -3663,13 +3700,13 @@
         <v>1318</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3678,13 +3715,13 @@
         <v>650</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3693,64 +3730,64 @@
         <v>1968</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D10" s="7">
-        <v>1066</v>
+        <v>126845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="I10" s="7">
-        <v>2635</v>
+        <v>113699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>339</v>
       </c>
       <c r="N10" s="7">
-        <v>3701</v>
+        <v>240544</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3802,13 @@
         <v>129229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>163</v>
@@ -3780,13 +3817,13 @@
         <v>116984</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>346</v>
@@ -3795,13 +3832,13 @@
         <v>246213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,55 +3849,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>310</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>212020</v>
+        <v>6716</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H12" s="7">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>196216</v>
+        <v>4851</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
-        <v>615</v>
+        <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>408237</v>
+        <v>11566</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
         <v>7</v>
@@ -3869,13 +3906,13 @@
         <v>5099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3884,13 +3921,13 @@
         <v>5291</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3899,64 +3936,64 @@
         <v>10390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>310</v>
       </c>
       <c r="D14" s="7">
-        <v>6716</v>
+        <v>212020</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>305</v>
       </c>
       <c r="I14" s="7">
-        <v>4851</v>
+        <v>196216</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>615</v>
       </c>
       <c r="N14" s="7">
-        <v>11566</v>
+        <v>408237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,13 +4008,13 @@
         <v>223835</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H15" s="7">
         <v>319</v>
@@ -3986,13 +4023,13 @@
         <v>206358</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7">
         <v>643</v>
@@ -4001,13 +4038,13 @@
         <v>430193</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,55 +4055,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9322</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7438</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="7">
-        <v>153042</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H16" s="7">
-        <v>230</v>
-      </c>
-      <c r="I16" s="7">
-        <v>145812</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
-        <v>469</v>
+        <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>298853</v>
+        <v>16760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
@@ -4075,13 +4112,13 @@
         <v>4228</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4090,13 +4127,13 @@
         <v>2126</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -4105,64 +4142,64 @@
         <v>6354</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="D18" s="7">
-        <v>9322</v>
+        <v>153042</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="H18" s="7">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="I18" s="7">
-        <v>7438</v>
+        <v>145812</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M18" s="7">
-        <v>19</v>
+        <v>469</v>
       </c>
       <c r="N18" s="7">
-        <v>16760</v>
+        <v>298853</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4214,13 @@
         <v>166592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H19" s="7">
         <v>242</v>
@@ -4192,13 +4229,13 @@
         <v>155376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M19" s="7">
         <v>498</v>
@@ -4207,72 +4244,72 @@
         <v>321968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>197098</v>
+        <v>10631</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
+        <v>9</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8476</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I20" s="7">
-        <v>198910</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
-        <v>534</v>
+        <v>19</v>
       </c>
       <c r="N20" s="7">
-        <v>396008</v>
+        <v>19107</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -4281,13 +4318,13 @@
         <v>667</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -4296,13 +4333,13 @@
         <v>2914</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -4311,64 +4348,64 @@
         <v>3581</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="D22" s="7">
-        <v>10631</v>
+        <v>197098</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="I22" s="7">
-        <v>8476</v>
+        <v>198910</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
-        <v>19</v>
+        <v>534</v>
       </c>
       <c r="N22" s="7">
-        <v>19107</v>
+        <v>396008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4420,13 @@
         <v>208396</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>275</v>
@@ -4398,13 +4435,13 @@
         <v>210300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>558</v>
@@ -4413,13 +4450,13 @@
         <v>418696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,55 +4467,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>1029</v>
+        <v>28</v>
       </c>
       <c r="D24" s="7">
-        <v>714460</v>
+        <v>27735</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>277</v>
+        <v>97</v>
       </c>
       <c r="H24" s="7">
-        <v>979</v>
+        <v>29</v>
       </c>
       <c r="I24" s="7">
-        <v>673478</v>
+        <v>25937</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M24" s="7">
-        <v>2008</v>
+        <v>57</v>
       </c>
       <c r="N24" s="7">
-        <v>1387938</v>
+        <v>53673</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>283</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
         <v>17</v>
@@ -4487,13 +4524,13 @@
         <v>11312</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -4502,13 +4539,13 @@
         <v>11976</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -4517,64 +4554,64 @@
         <v>23287</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
-        <v>28</v>
+        <v>1029</v>
       </c>
       <c r="D26" s="7">
-        <v>27735</v>
+        <v>714460</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
-        <v>29</v>
+        <v>979</v>
       </c>
       <c r="I26" s="7">
-        <v>25937</v>
+        <v>673478</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
-        <v>57</v>
+        <v>2008</v>
       </c>
       <c r="N26" s="7">
-        <v>53673</v>
+        <v>1387938</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>58</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4626,13 @@
         <v>753507</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H27" s="7">
         <v>1025</v>
@@ -4604,13 +4641,13 @@
         <v>711391</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M27" s="7">
         <v>2099</v>
@@ -4619,13 +4656,18 @@
         <v>1464898</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4646,8 +4688,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43E0685-2788-4B1F-80C1-F95565225DC5}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EA0471-8557-48F6-8CA1-C39ACBB0FB0F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4663,7 +4705,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4764,55 +4806,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4821,10 +4863,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>71</v>
@@ -4836,13 +4878,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4851,64 +4893,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
         <v>24</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>302</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4965,13 @@
         <v>25574</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4938,13 +4980,13 @@
         <v>22527</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -4953,13 +4995,13 @@
         <v>48101</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,55 +5012,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>118076</v>
+        <v>3713</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>304</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H8" s="7">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>108563</v>
+        <v>1895</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
-        <v>320</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>226640</v>
+        <v>5608</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>309</v>
+        <v>69</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>310</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -5027,13 +5069,13 @@
         <v>713</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5042,13 +5084,13 @@
         <v>722</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -5057,64 +5099,64 @@
         <v>1434</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="D10" s="7">
-        <v>3713</v>
+        <v>118076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="I10" s="7">
-        <v>1895</v>
+        <v>108563</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="N10" s="7">
-        <v>5608</v>
+        <v>226640</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5171,13 @@
         <v>122502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>163</v>
@@ -5144,13 +5186,13 @@
         <v>111180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>328</v>
@@ -5159,13 +5201,13 @@
         <v>233682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,55 +5218,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>319</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>214160</v>
+        <v>6267</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>145</v>
+        <v>326</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H12" s="7">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>193838</v>
+        <v>8573</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M12" s="7">
-        <v>635</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7">
-        <v>407998</v>
+        <v>14840</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
         <v>6</v>
@@ -5233,13 +5275,13 @@
         <v>3933</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5248,13 +5290,13 @@
         <v>4836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5263,64 +5305,64 @@
         <v>8769</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>319</v>
       </c>
       <c r="D14" s="7">
-        <v>6267</v>
+        <v>214160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>339</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="I14" s="7">
-        <v>8573</v>
+        <v>193838</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
-        <v>18</v>
+        <v>635</v>
       </c>
       <c r="N14" s="7">
-        <v>14840</v>
+        <v>407998</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5377,13 @@
         <v>224359</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H15" s="7">
         <v>334</v>
@@ -5350,13 +5392,13 @@
         <v>207247</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7">
         <v>666</v>
@@ -5365,13 +5407,13 @@
         <v>431606</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,55 +5424,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>164760</v>
+        <v>1913</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>346</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>149365</v>
+        <v>4310</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7">
-        <v>495</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>314125</v>
+        <v>6222</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -5439,13 +5481,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5454,13 +5496,13 @@
         <v>2322</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -5469,64 +5511,64 @@
         <v>2322</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>46</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="D18" s="7">
-        <v>1913</v>
+        <v>164760</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>363</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>315</v>
+        <v>27</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>4310</v>
+        <v>149365</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="M18" s="7">
-        <v>7</v>
+        <v>495</v>
       </c>
       <c r="N18" s="7">
-        <v>6222</v>
+        <v>314125</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5583,13 @@
         <v>166673</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H19" s="7">
         <v>259</v>
@@ -5556,13 +5598,13 @@
         <v>155997</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M19" s="7">
         <v>507</v>
@@ -5571,72 +5613,72 @@
         <v>322670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>283</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>200104</v>
+        <v>1878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>201631</v>
+        <v>1882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
-        <v>557</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>401735</v>
+        <v>3761</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
         <v>4</v>
@@ -5645,13 +5687,13 @@
         <v>3040</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>75</v>
+        <v>373</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -5660,13 +5702,13 @@
         <v>3907</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>372</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -5675,64 +5717,64 @@
         <v>6947</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>98</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>283</v>
       </c>
       <c r="D22" s="7">
-        <v>1878</v>
+        <v>200104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>274</v>
       </c>
       <c r="I22" s="7">
-        <v>1882</v>
+        <v>201631</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>284</v>
+        <v>382</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>557</v>
       </c>
       <c r="N22" s="7">
-        <v>3761</v>
+        <v>401735</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>284</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5789,13 @@
         <v>205023</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>281</v>
@@ -5762,13 +5804,13 @@
         <v>207420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>570</v>
@@ -5777,13 +5819,13 @@
         <v>412443</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,55 +5836,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>1037</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>722674</v>
+        <v>13771</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>380</v>
+        <v>46</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>381</v>
+        <v>292</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>382</v>
+        <v>307</v>
       </c>
       <c r="H24" s="7">
-        <v>1024</v>
+        <v>20</v>
       </c>
       <c r="I24" s="7">
-        <v>675924</v>
+        <v>16660</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>383</v>
+        <v>239</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="M24" s="7">
-        <v>2061</v>
+        <v>35</v>
       </c>
       <c r="N24" s="7">
-        <v>1398599</v>
+        <v>30431</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>387</v>
+        <v>216</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
         <v>12</v>
@@ -5851,13 +5893,13 @@
         <v>7686</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>359</v>
+        <v>269</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -5866,13 +5908,13 @@
         <v>11786</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -5881,64 +5923,64 @@
         <v>19472</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>46</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
-        <v>15</v>
+        <v>1037</v>
       </c>
       <c r="D26" s="7">
-        <v>13771</v>
+        <v>722674</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>398</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H26" s="7">
-        <v>20</v>
+        <v>1024</v>
       </c>
       <c r="I26" s="7">
-        <v>16660</v>
+        <v>675924</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M26" s="7">
-        <v>35</v>
+        <v>2061</v>
       </c>
       <c r="N26" s="7">
-        <v>30431</v>
+        <v>1398599</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>344</v>
+        <v>403</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5995,13 @@
         <v>744131</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
@@ -5968,13 +6010,13 @@
         <v>704371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M27" s="7">
         <v>2125</v>
@@ -5983,13 +6025,18 @@
         <v>1448502</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6010,8 +6057,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A9E59E-C4A9-4BBB-AF28-62425094C866}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA390FD-0080-4578-B9A4-DC848BAE599B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6027,7 +6074,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6128,55 +6175,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>11788</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>402</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7">
-        <v>28</v>
-      </c>
-      <c r="I4" s="7">
-        <v>16787</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>46</v>
-      </c>
-      <c r="N4" s="7">
-        <v>28575</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -6185,13 +6232,13 @@
         <v>910</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>405</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6200,13 +6247,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6215,64 +6262,64 @@
         <v>910</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11788</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>28575</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>413</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>414</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6334,13 @@
         <v>12698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -6302,13 +6349,13 @@
         <v>16787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -6317,13 +6364,13 @@
         <v>29485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,55 +6381,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>109780</v>
+        <v>4816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H8" s="7">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>103736</v>
+        <v>159</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>414</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>419</v>
       </c>
       <c r="M8" s="7">
-        <v>315</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>213515</v>
+        <v>4975</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -6391,13 +6438,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6406,13 +6453,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>288</v>
+        <v>421</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6421,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>47</v>
@@ -6433,52 +6480,52 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="D10" s="7">
-        <v>4816</v>
+        <v>109780</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="I10" s="7">
-        <v>159</v>
+        <v>103736</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>426</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>27</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>315</v>
       </c>
       <c r="N10" s="7">
-        <v>4975</v>
+        <v>213515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>427</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>428</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6540,13 @@
         <v>114596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -6508,13 +6555,13 @@
         <v>103895</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>320</v>
@@ -6523,13 +6570,13 @@
         <v>218490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,55 +6587,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>243725</v>
+        <v>3655</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>424</v>
+        <v>197</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>187092</v>
+        <v>4497</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>426</v>
+        <v>38</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>275</v>
+        <v>431</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>432</v>
       </c>
       <c r="M12" s="7">
-        <v>601</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>430817</v>
+        <v>8152</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>433</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>428</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
@@ -6597,13 +6644,13 @@
         <v>2806</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>430</v>
+        <v>247</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6612,13 +6659,13 @@
         <v>763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -6627,64 +6674,64 @@
         <v>3569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>419</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>332</v>
       </c>
       <c r="D14" s="7">
-        <v>3655</v>
+        <v>243725</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="I14" s="7">
-        <v>4497</v>
+        <v>187092</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>438</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>601</v>
       </c>
       <c r="N14" s="7">
-        <v>8152</v>
+        <v>430817</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,13 +6746,13 @@
         <v>250186</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H15" s="7">
         <v>280</v>
@@ -6714,13 +6761,13 @@
         <v>192352</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7">
         <v>623</v>
@@ -6729,13 +6776,13 @@
         <v>442538</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6746,55 +6793,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>166746</v>
+        <v>5653</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>441</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="H16" s="7">
-        <v>216</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>160476</v>
+        <v>2763</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="M16" s="7">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>327222</v>
+        <v>8416</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -6803,13 +6850,13 @@
         <v>809</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -6818,13 +6865,13 @@
         <v>4663</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -6833,64 +6880,64 @@
         <v>5473</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>454</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>455</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="D18" s="7">
-        <v>5653</v>
+        <v>166746</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="I18" s="7">
-        <v>2763</v>
+        <v>160476</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M18" s="7">
-        <v>12</v>
+        <v>430</v>
       </c>
       <c r="N18" s="7">
-        <v>8416</v>
+        <v>327222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>419</v>
+        <v>343</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,13 +6952,13 @@
         <v>173208</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H19" s="7">
         <v>226</v>
@@ -6920,13 +6967,13 @@
         <v>167902</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M19" s="7">
         <v>451</v>
@@ -6935,72 +6982,72 @@
         <v>341110</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>172140</v>
+        <v>1731</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>337</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>211</v>
+        <v>468</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>464</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
-        <v>227</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>164419</v>
+        <v>4124</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>465</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>466</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>467</v>
+        <v>70</v>
       </c>
       <c r="M20" s="7">
-        <v>457</v>
+        <v>15</v>
       </c>
       <c r="N20" s="7">
-        <v>336559</v>
+        <v>5856</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>469</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>470</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
@@ -7009,13 +7056,13 @@
         <v>1145</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -7024,13 +7071,13 @@
         <v>2205</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7039,64 +7086,64 @@
         <v>3349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>241</v>
+        <v>434</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>474</v>
+        <v>247</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>344</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
-        <v>6</v>
+        <v>230</v>
       </c>
       <c r="D22" s="7">
-        <v>1731</v>
+        <v>172140</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>474</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>262</v>
+        <v>475</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>476</v>
       </c>
       <c r="H22" s="7">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="I22" s="7">
-        <v>4124</v>
+        <v>164419</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>477</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M22" s="7">
-        <v>15</v>
+        <v>457</v>
       </c>
       <c r="N22" s="7">
-        <v>5856</v>
+        <v>336559</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,13 +7158,13 @@
         <v>175016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>239</v>
@@ -7126,13 +7173,13 @@
         <v>170748</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>477</v>
@@ -7141,13 +7188,13 @@
         <v>345764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,55 +7205,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>942</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>704178</v>
+        <v>15856</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>480</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>481</v>
+        <v>211</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H24" s="7">
-        <v>907</v>
+        <v>23</v>
       </c>
       <c r="I24" s="7">
-        <v>632511</v>
+        <v>11543</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M24" s="7">
-        <v>1849</v>
+        <v>48</v>
       </c>
       <c r="N24" s="7">
-        <v>1336688</v>
+        <v>27399</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
         <v>10</v>
@@ -7215,13 +7262,13 @@
         <v>5670</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>473</v>
+        <v>194</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -7230,13 +7277,13 @@
         <v>7631</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -7245,64 +7292,64 @@
         <v>13301</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>241</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
-        <v>25</v>
+        <v>942</v>
       </c>
       <c r="D26" s="7">
-        <v>15856</v>
+        <v>704178</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>490</v>
+        <v>229</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>238</v>
+        <v>492</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H26" s="7">
-        <v>23</v>
+        <v>907</v>
       </c>
       <c r="I26" s="7">
-        <v>11543</v>
+        <v>632511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>495</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M26" s="7">
-        <v>48</v>
+        <v>1849</v>
       </c>
       <c r="N26" s="7">
-        <v>27399</v>
+        <v>1336688</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,13 +7364,13 @@
         <v>725704</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H27" s="7">
         <v>941</v>
@@ -7332,13 +7379,13 @@
         <v>651684</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M27" s="7">
         <v>1918</v>
@@ -7347,13 +7394,18 @@
         <v>1377388</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP32-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D139FAD-2238-487E-883E-113150716A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A23CA2-915F-4B82-A044-E30904691797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A6272DF-B407-45D3-8267-C82D63063CC8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14AF1E52-0C8E-4AEC-AE35-00BD3CD8CFC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="486">
   <si>
     <t>Menores según su lugar de nacimiento en 2007 (Tasa respuesta: 99,67%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Extranjero</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,61%</t>
+    <t>16,03%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>9,12%</t>
+    <t>8,52%</t>
   </si>
   <si>
     <t>Resto de España</t>
@@ -101,13 +101,13 @@
     <t>6,46%</t>
   </si>
   <si>
-    <t>22,21%</t>
+    <t>22,13%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>10,34%</t>
+    <t>11,95%</t>
   </si>
   <si>
     <t>Andalucia</t>
@@ -116,10 +116,10 @@
     <t>90,27%</t>
   </si>
   <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -134,13 +134,13 @@
     <t>94,86%</t>
   </si>
   <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,17%</t>
@@ -149,1393 +149,1351 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>5,56%</t>
+    <t>4,97%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>95,88%</t>
   </si>
   <si>
     <t>97,78%</t>
@@ -1950,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A2E493-A0A3-4899-AD0E-1FB7C28E4289}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D540BA7-4F6F-486B-9414-653987B63544}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2352,7 +2310,7 @@
         <v>47</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -2361,13 +2319,13 @@
         <v>8307</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2340,13 @@
         <v>118036</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>161</v>
@@ -2397,13 +2355,13 @@
         <v>107182</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>340</v>
@@ -2412,13 +2370,13 @@
         <v>225217</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,7 +2432,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2486,13 +2444,13 @@
         <v>7486</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -2501,13 +2459,13 @@
         <v>7065</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -2516,13 +2474,13 @@
         <v>14551</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2495,13 @@
         <v>13002</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2552,13 +2510,13 @@
         <v>5524</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -2567,13 +2525,13 @@
         <v>18526</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2546,13 @@
         <v>191023</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>290</v>
@@ -2603,13 +2561,13 @@
         <v>181316</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>580</v>
@@ -2618,13 +2576,13 @@
         <v>372340</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,7 +2638,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2692,13 +2650,13 @@
         <v>10876</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2707,13 +2665,13 @@
         <v>9724</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2722,13 +2680,13 @@
         <v>20599</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,13 +2701,13 @@
         <v>4662</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2758,13 +2716,13 @@
         <v>6442</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -2773,13 +2731,13 @@
         <v>11104</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2752,13 @@
         <v>133393</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>204</v>
@@ -2809,13 +2767,13 @@
         <v>121652</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>412</v>
@@ -2824,13 +2782,13 @@
         <v>255044</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,7 +2844,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2898,13 +2856,13 @@
         <v>11243</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2913,13 +2871,13 @@
         <v>8594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -2928,13 +2886,13 @@
         <v>19837</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2907,13 @@
         <v>15504</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -2964,13 +2922,13 @@
         <v>18360</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M21" s="7">
         <v>46</v>
@@ -2979,13 +2937,13 @@
         <v>33864</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2958,13 @@
         <v>180392</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>238</v>
@@ -3015,13 +2973,13 @@
         <v>182361</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>504</v>
@@ -3030,13 +2988,13 @@
         <v>362753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3062,13 @@
         <v>33195</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -3119,13 +3077,13 @@
         <v>31487</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>96</v>
@@ -3134,13 +3092,13 @@
         <v>64681</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3113,13 @@
         <v>40979</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -3170,13 +3128,13 @@
         <v>32466</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3185,13 +3143,13 @@
         <v>73446</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,16 +3161,16 @@
         <v>973</v>
       </c>
       <c r="D26" s="7">
-        <v>645811</v>
+        <v>645812</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>922</v>
@@ -3221,13 +3179,13 @@
         <v>615234</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>1895</v>
@@ -3236,13 +3194,13 @@
         <v>1261045</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,7 +3212,7 @@
         <v>1082</v>
       </c>
       <c r="D27" s="7">
-        <v>719985</v>
+        <v>719986</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>29</v>
@@ -3298,7 +3256,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3319,7 +3277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA79DE6-0122-446B-9600-D06B9D4394FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F688E934-FC9E-478F-A196-E1919346EC84}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3336,7 +3294,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3449,7 +3407,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3458,13 +3416,13 @@
         <v>2537</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3473,13 +3431,13 @@
         <v>2537</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,7 +3458,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3509,13 +3467,13 @@
         <v>994</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3524,13 +3482,13 @@
         <v>994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,7 +3506,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>29</v>
@@ -3560,13 +3518,13 @@
         <v>18841</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -3575,13 +3533,13 @@
         <v>44296</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3607,13 @@
         <v>1066</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3664,13 +3622,13 @@
         <v>2635</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3679,13 +3637,13 @@
         <v>3701</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3658,13 @@
         <v>1318</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3715,13 +3673,13 @@
         <v>650</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3730,13 +3688,13 @@
         <v>1968</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3709,13 @@
         <v>126845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>159</v>
@@ -3766,13 +3724,13 @@
         <v>113699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>339</v>
@@ -3781,13 +3739,13 @@
         <v>240544</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3801,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3855,13 +3813,13 @@
         <v>6716</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -3870,13 +3828,13 @@
         <v>4851</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -3885,13 +3843,13 @@
         <v>11566</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3864,13 @@
         <v>5099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3921,13 +3879,13 @@
         <v>5291</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3936,13 +3894,13 @@
         <v>10390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3915,13 @@
         <v>212020</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -3972,13 +3930,13 @@
         <v>196216</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>615</v>
@@ -3987,13 +3945,13 @@
         <v>408237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,7 +4007,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4061,13 +4019,13 @@
         <v>9322</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4076,13 +4034,13 @@
         <v>7438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4091,13 +4049,13 @@
         <v>16760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4070,13 @@
         <v>4228</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4127,13 +4085,13 @@
         <v>2126</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -4142,13 +4100,13 @@
         <v>6354</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4121,13 @@
         <v>153042</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H18" s="7">
         <v>230</v>
@@ -4178,13 +4136,13 @@
         <v>145812</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M18" s="7">
         <v>469</v>
@@ -4193,13 +4151,13 @@
         <v>298853</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,7 +4213,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4267,13 +4225,13 @@
         <v>10631</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4282,13 +4240,13 @@
         <v>8476</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -4297,13 +4255,13 @@
         <v>19107</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4276,13 @@
         <v>667</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -4333,13 +4291,13 @@
         <v>2914</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -4348,13 +4306,13 @@
         <v>3581</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4327,13 @@
         <v>197098</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>262</v>
@@ -4384,13 +4342,13 @@
         <v>198910</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>534</v>
@@ -4399,13 +4357,13 @@
         <v>396008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4431,13 @@
         <v>27735</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -4488,13 +4446,13 @@
         <v>25937</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="M24" s="7">
         <v>57</v>
@@ -4506,10 +4464,10 @@
         <v>40</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4482,13 @@
         <v>11312</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -4539,13 +4497,13 @@
         <v>11976</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -4554,13 +4512,13 @@
         <v>23287</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4533,13 @@
         <v>714460</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>108</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>979</v>
@@ -4590,13 +4548,13 @@
         <v>673478</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>2008</v>
@@ -4605,13 +4563,13 @@
         <v>1387938</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,7 +4625,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4688,7 +4646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EA0471-8557-48F6-8CA1-C39ACBB0FB0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE0243-3BF3-4F74-96AE-7AB83943139C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4705,7 +4663,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4818,7 +4776,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4833,7 +4791,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4848,7 +4806,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,7 +4827,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4884,7 +4842,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4899,7 +4857,7 @@
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4875,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>29</v>
@@ -4932,7 +4890,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>29</v>
@@ -4947,7 +4905,7 @@
         <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>29</v>
@@ -5018,13 +4976,13 @@
         <v>3713</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5033,13 +4991,13 @@
         <v>1895</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -5048,13 +5006,13 @@
         <v>5608</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5027,13 @@
         <v>713</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>312</v>
+        <v>145</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5084,13 +5042,13 @@
         <v>722</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -5099,13 +5057,13 @@
         <v>1434</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5078,13 @@
         <v>118076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
         <v>160</v>
@@ -5135,13 +5093,13 @@
         <v>108563</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>320</v>
@@ -5150,13 +5108,13 @@
         <v>226640</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,7 +5170,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5224,13 +5182,13 @@
         <v>6267</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -5239,13 +5197,13 @@
         <v>8573</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -5254,13 +5212,13 @@
         <v>14840</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5233,13 @@
         <v>3933</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5290,13 +5248,13 @@
         <v>4836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5305,13 +5263,13 @@
         <v>8769</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>341</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5284,13 @@
         <v>214160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
         <v>316</v>
@@ -5341,13 +5299,13 @@
         <v>193838</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
         <v>635</v>
@@ -5356,13 +5314,13 @@
         <v>407998</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>348</v>
+        <v>111</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>349</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,7 +5376,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5430,13 +5388,13 @@
         <v>1913</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5445,13 +5403,13 @@
         <v>4310</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5460,13 +5418,13 @@
         <v>6222</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5454,13 @@
         <v>2322</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -5511,13 +5469,13 @@
         <v>2322</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,10 +5490,10 @@
         <v>164760</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>27</v>
@@ -5547,13 +5505,13 @@
         <v>149365</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M18" s="7">
         <v>495</v>
@@ -5562,13 +5520,13 @@
         <v>314125</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,7 +5582,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5636,13 +5594,13 @@
         <v>1878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5651,13 +5609,13 @@
         <v>1882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5666,13 +5624,13 @@
         <v>3761</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>263</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5645,13 @@
         <v>3040</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -5702,13 +5660,13 @@
         <v>3907</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -5717,13 +5675,13 @@
         <v>6947</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>378</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5696,13 @@
         <v>200104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>30</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H22" s="7">
         <v>274</v>
@@ -5753,13 +5711,13 @@
         <v>201631</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>299</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>557</v>
@@ -5768,13 +5726,13 @@
         <v>401735</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,10 +5803,10 @@
         <v>46</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -5857,13 +5815,13 @@
         <v>16660</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>239</v>
+        <v>382</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="M24" s="7">
         <v>35</v>
@@ -5872,13 +5830,13 @@
         <v>30431</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5851,13 @@
         <v>7686</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -5908,13 +5866,13 @@
         <v>11786</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>393</v>
+        <v>65</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>394</v>
+        <v>244</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -5923,13 +5881,13 @@
         <v>19472</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +5902,13 @@
         <v>722674</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H26" s="7">
         <v>1024</v>
@@ -5959,13 +5917,13 @@
         <v>675924</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="M26" s="7">
         <v>2061</v>
@@ -5974,13 +5932,13 @@
         <v>1398599</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,7 +5994,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6057,7 +6015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA390FD-0080-4578-B9A4-DC848BAE599B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB46098-6BA8-45E8-BA66-EC55E4FE704D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6074,7 +6032,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6187,7 +6145,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6202,7 +6160,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6217,7 +6175,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6190,13 @@
         <v>910</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6253,7 +6211,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6262,13 +6220,13 @@
         <v>910</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,10 +6241,10 @@
         <v>11788</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>27</v>
@@ -6301,7 +6259,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>29</v>
@@ -6313,10 +6271,10 @@
         <v>28575</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>413</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>27</v>
@@ -6387,13 +6345,13 @@
         <v>4816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6402,13 +6360,13 @@
         <v>159</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -6417,13 +6375,13 @@
         <v>4975</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,7 +6402,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>222</v>
+        <v>413</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6459,7 +6417,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6474,7 +6432,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6447,13 @@
         <v>109780</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>167</v>
@@ -6504,10 +6462,10 @@
         <v>103736</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>27</v>
@@ -6519,13 +6477,13 @@
         <v>213515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,7 +6539,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6593,13 +6551,13 @@
         <v>3655</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -6608,13 +6566,13 @@
         <v>4497</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>431</v>
+        <v>214</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>432</v>
+        <v>147</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -6623,13 +6581,13 @@
         <v>8152</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>307</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6602,13 @@
         <v>2806</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>247</v>
+        <v>429</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6659,13 +6617,13 @@
         <v>763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>430</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -6674,13 +6632,13 @@
         <v>3569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>439</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6653,13 @@
         <v>243725</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H14" s="7">
         <v>269</v>
@@ -6710,13 +6668,13 @@
         <v>187092</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>436</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>601</v>
@@ -6725,13 +6683,13 @@
         <v>430817</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,7 +6745,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6799,13 +6757,13 @@
         <v>5653</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>439</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6814,13 +6772,13 @@
         <v>2763</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -6829,13 +6787,13 @@
         <v>8416</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6808,13 @@
         <v>809</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -6865,13 +6823,13 @@
         <v>4663</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>456</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>457</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -6880,13 +6838,13 @@
         <v>5473</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>449</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6859,13 @@
         <v>166746</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>461</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="H18" s="7">
         <v>216</v>
@@ -6916,13 +6874,13 @@
         <v>160476</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="M18" s="7">
         <v>430</v>
@@ -6931,13 +6889,13 @@
         <v>327222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>343</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,7 +6951,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7005,13 +6963,13 @@
         <v>1731</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>337</v>
+        <v>458</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>213</v>
+        <v>459</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7020,13 +6978,13 @@
         <v>4124</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>460</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -7035,13 +6993,13 @@
         <v>5856</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7014,13 @@
         <v>1145</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -7071,13 +7029,13 @@
         <v>2205</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>471</v>
+        <v>74</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>473</v>
+        <v>67</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7086,13 +7044,13 @@
         <v>3349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>247</v>
+        <v>429</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>34</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7065,13 @@
         <v>172140</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>475</v>
+        <v>230</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="H22" s="7">
         <v>227</v>
@@ -7122,13 +7080,13 @@
         <v>164419</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="M22" s="7">
         <v>457</v>
@@ -7137,13 +7095,13 @@
         <v>336559</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>481</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7169,13 @@
         <v>15856</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>211</v>
+        <v>472</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>483</v>
+        <v>368</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -7226,13 +7184,13 @@
         <v>11543</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -7241,13 +7199,13 @@
         <v>27399</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>246</v>
+        <v>476</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7220,13 @@
         <v>5670</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>353</v>
+        <v>411</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>194</v>
+        <v>430</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>488</v>
+        <v>367</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -7277,13 +7235,13 @@
         <v>7631</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>489</v>
+        <v>239</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>490</v>
+        <v>307</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>332</v>
+        <v>478</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -7292,13 +7250,13 @@
         <v>13301</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>334</v>
+        <v>479</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7271,13 @@
         <v>704178</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="H26" s="7">
         <v>907</v>
@@ -7328,13 +7286,13 @@
         <v>632511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>496</v>
+        <v>392</v>
       </c>
       <c r="M26" s="7">
         <v>1849</v>
@@ -7343,13 +7301,13 @@
         <v>1336688</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>497</v>
+        <v>393</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,7 +7363,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
